--- a/spreadsheet/data.xlsx
+++ b/spreadsheet/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
   <si>
     <t>Registers</t>
   </si>
@@ -32,10 +32,19 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
     <t>EAX</t>
   </si>
   <si>
-    <t>32 bits</t>
+    <t>32 bit</t>
   </si>
   <si>
     <t>Accumulator</t>
@@ -50,13 +59,289 @@
     <t>AX</t>
   </si>
   <si>
-    <t>16 bits</t>
+    <t>16 bit</t>
   </si>
   <si>
     <t>AH</t>
   </si>
   <si>
-    <t>8 bits</t>
+    <t>8 bit</t>
+  </si>
+  <si>
+    <t>High Byte</t>
+  </si>
+  <si>
+    <t>EBX</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Used as a base pointer for memory access. Gets some interrupt return calls.</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Low Byte</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>ECX</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Used as a loop counter and for shifts. Gets some interrupt values</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>EDX</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Carry Flag</t>
+  </si>
+  <si>
+    <t>EFLAGS Register</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Parity Flag</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Auxilliary Carry Flag</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>Zero Flag</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Sign Flag</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Trap Flag</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Interrupt Enable Flag</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Direction Flag</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>Overflow Flag</t>
+  </si>
+  <si>
+    <t>IOPL</t>
+  </si>
+  <si>
+    <t>I/O Privillage Flag</t>
+  </si>
+  <si>
+    <t>12 – 13</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Nested Task Flag</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Resume Flag</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Virtual 8086 Mode Flag</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Alignment Check Flag (486)</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>Virtual Interrupt Flag</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Virtual Interrupt Pending Flag</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID Flag</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Code Segment</t>
+  </si>
+  <si>
+    <t>Holds the code segment in which your program runs. Changing its value might make the computer hang.</t>
+  </si>
+  <si>
+    <t>Segement Register</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Data Segment</t>
+  </si>
+  <si>
+    <t>Holds the data segement that your computer accesses. Chaning its value might give erroneous data.</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Extra Segment</t>
+  </si>
+  <si>
+    <t>Available for far pointer addressing like video memory and such.</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Stack Segment</t>
+  </si>
+  <si>
+    <t>Holds the stack segment your program uses. Sometimes has same value as DS. Changing its value can give unpredeicatable results, mostly data related.</t>
+  </si>
+  <si>
+    <t>EDI</t>
+  </si>
+  <si>
+    <t>Destination Index Register</t>
+  </si>
+  <si>
+    <t>Used for string, memory array copying and sorting, and for far pointer addressing with ES.</t>
+  </si>
+  <si>
+    <t>Protected Mode</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>Source Index Register</t>
+  </si>
+  <si>
+    <t>Used for string, memory array copying and sorting.</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>EBP</t>
+  </si>
+  <si>
+    <t>Stack Base Pointer Register</t>
+  </si>
+  <si>
+    <t>Holds the base address of the stack</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Stack Pointer Register</t>
+  </si>
+  <si>
+    <t>Holds the top address of the stack</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>EIP</t>
+  </si>
+  <si>
+    <t>Index Pointer</t>
+  </si>
+  <si>
+    <t>Holds the offset of the next instruction. Can only be read.</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
@@ -130,8 +415,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -152,16 +441,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="H51" activeCellId="0" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2397959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0612244897959"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1071428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
@@ -182,56 +472,787 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
